--- a/documenten/eindpresentatie/° Evaluaties eindpresentaties BP blok1 crm drone1 tiptop1.xlsx
+++ b/documenten/eindpresentatie/° Evaluaties eindpresentaties BP blok1 crm drone1 tiptop1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vongenae\Dropbox\VOPshare\1920\Evaluatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\Universiteit Gent\Jaar 3\Semester VI\Bachelorproef\2020\drone1\documenten\eindpresentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB37F3-21F6-4914-BAD5-FBF601D2D19C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="evaluatie presentatie" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Beoordelingsformulier presentaties Bachelorproef </t>
-  </si>
-  <si>
-    <t>Je naam:</t>
-  </si>
-  <si>
-    <t>Je team:</t>
   </si>
   <si>
     <r>
@@ -298,12 +291,50 @@
   <si>
     <t>Vera Tuur</t>
   </si>
+  <si>
+    <t>Individuele score: (/10)</t>
+  </si>
+  <si>
+    <t>Teamscore: (/10)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je team: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drone1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Je naam: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bryan Van Huyneghem</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,51 +374,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,7 +415,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,10 +668,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,15 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -689,68 +702,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -767,19 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -787,41 +737,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -832,41 +755,118 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1149,614 +1149,870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="18" width="3.77734375" customWidth="1"/>
+    <col min="2" max="18" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="4.1500000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35"/>
-    </row>
-    <row r="8" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="47"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="49"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-    </row>
-    <row r="9" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="25">
+        <v>3</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="35">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="25">
+        <v>3</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="47"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="49"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="25">
+        <v>3</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="35">
+        <v>3</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="25">
+        <v>3</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="47"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="49"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="25">
+        <v>3</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="35">
+        <v>4</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="25">
+        <v>4</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="47"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="49"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-    </row>
-    <row r="13" spans="1:18" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="O11" s="25">
+        <v>4</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="71"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="1:18" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="38">
+        <v>4</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="29">
+        <v>3</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="29">
+        <v>3</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="40">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="32">
+        <v>4</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="53"/>
       <c r="L14" s="54"/>
       <c r="M14" s="54"/>
       <c r="N14" s="55"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="O14" s="32">
+        <v>4</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="35"/>
-    </row>
-    <row r="16" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="B16" s="35">
+        <v>3</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25">
+        <v>3</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="47"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="49"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-    </row>
-    <row r="17" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="25">
+        <v>2</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25">
+        <v>4</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="47"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
       <c r="N17" s="49"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="O17" s="25">
+        <v>3</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="62">
+        <v>8</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="62">
+        <v>8</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="47"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
       <c r="N18" s="49"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+      <c r="O18" s="62">
+        <v>7</v>
+      </c>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46">
+        <v>3</v>
+      </c>
+      <c r="C22" s="46">
+        <v>3</v>
+      </c>
+      <c r="D22" s="46">
+        <v>3</v>
+      </c>
+      <c r="E22" s="46">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11">
+        <v>3</v>
+      </c>
+      <c r="G22" s="43">
+        <v>3</v>
+      </c>
+      <c r="H22" s="44">
+        <v>3</v>
+      </c>
+      <c r="I22" s="44">
+        <v>3</v>
+      </c>
+      <c r="J22" s="44">
+        <v>3</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="44">
+        <v>3</v>
+      </c>
+      <c r="P22" s="44">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>3</v>
+      </c>
+      <c r="R22" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="46">
+        <v>4</v>
+      </c>
+      <c r="C23" s="46">
+        <v>3</v>
+      </c>
+      <c r="D23" s="46">
+        <v>3</v>
+      </c>
+      <c r="E23" s="46">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4</v>
+      </c>
+      <c r="G23" s="44">
+        <v>3</v>
+      </c>
+      <c r="H23" s="44">
+        <v>4</v>
+      </c>
+      <c r="I23" s="44">
+        <v>3</v>
+      </c>
+      <c r="J23" s="44">
+        <v>2</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="44">
+        <v>2</v>
+      </c>
+      <c r="P23" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>4</v>
+      </c>
+      <c r="R23" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="46">
+        <v>4</v>
+      </c>
+      <c r="C24" s="46">
+        <v>4</v>
+      </c>
+      <c r="D24" s="46">
+        <v>3</v>
+      </c>
+      <c r="E24" s="46">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3</v>
+      </c>
+      <c r="G24" s="44">
+        <v>3</v>
+      </c>
+      <c r="H24" s="44">
+        <v>4</v>
+      </c>
+      <c r="I24" s="44">
+        <v>4</v>
+      </c>
+      <c r="J24" s="44">
+        <v>4</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="44">
+        <v>3</v>
+      </c>
+      <c r="P24" s="44">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>2</v>
+      </c>
+      <c r="R24" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+    </row>
+    <row r="26" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="44">
+        <v>3</v>
+      </c>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="59">
+        <v>9</v>
+      </c>
+      <c r="C27" s="59">
         <v>8</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="1:18" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="D27" s="59">
+        <v>7</v>
+      </c>
+      <c r="E27" s="59">
+        <v>6</v>
+      </c>
+      <c r="F27" s="60">
+        <v>8</v>
+      </c>
+      <c r="G27" s="61">
+        <v>7</v>
+      </c>
+      <c r="H27" s="61">
+        <v>9</v>
+      </c>
+      <c r="I27" s="61">
+        <v>8</v>
+      </c>
+      <c r="J27" s="61">
+        <v>7</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="61">
+        <v>7</v>
+      </c>
+      <c r="P27" s="61">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="61">
+        <v>7</v>
+      </c>
+      <c r="R27" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7">
+        <v>16</v>
+      </c>
+      <c r="G28" s="45">
+        <v>15</v>
+      </c>
+      <c r="H28" s="45">
+        <v>17</v>
+      </c>
+      <c r="I28" s="45">
+        <v>16</v>
+      </c>
+      <c r="J28" s="45">
+        <v>15</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="45">
+        <v>14</v>
+      </c>
+      <c r="P28" s="45">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="45">
+        <v>14</v>
+      </c>
+      <c r="R28" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-    </row>
-    <row r="24" spans="1:18" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-    </row>
-    <row r="26" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-    </row>
-    <row r="27" spans="1:18" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="26"/>
-    </row>
-    <row r="28" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A15:R15"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="P20:P21"/>
@@ -1773,54 +2029,8 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documenten/eindpresentatie/° Evaluaties eindpresentaties BP blok1 crm drone1 tiptop1.xlsx
+++ b/documenten/eindpresentatie/° Evaluaties eindpresentaties BP blok1 crm drone1 tiptop1.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
